--- a/assignment2/test-statistics.xlsx
+++ b/assignment2/test-statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\GitHub\425-ComputerVision\assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A13AE889-92F9-47CE-8D93-EEABD8EEF704}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8A22B8-E6E7-48B3-8637-2544824E3B17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-690" windowWidth="29040" windowHeight="15840" xr2:uid="{6294E8BA-7C7A-4643-ABFF-C3B301BE359A}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{6294E8BA-7C7A-4643-ABFF-C3B301BE359A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,8 +102,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,53 +421,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A395CC68-C659-43C7-9B6A-08D5AC94A932}">
-  <dimension ref="B4:N36"/>
+  <dimension ref="B4:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G4">
-        <v>0.55000000000000004</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="H4">
-        <v>0.57499999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="I4">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="J4">
-        <v>0.625</v>
+        <v>0.65</v>
       </c>
       <c r="K4">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="L4">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="M4">
-        <v>0.75</v>
-      </c>
-      <c r="N4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
       <c r="F6">
         <v>4</v>
       </c>
@@ -478,59 +487,60 @@
         <v>4</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>1</v>
       </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
       <c r="F7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
+      </c>
+      <c r="E8">
+        <f>E6/5</f>
+        <v>0.8</v>
       </c>
       <c r="F8">
         <f>F6/5</f>
@@ -541,16 +551,16 @@
         <v>0.8</v>
       </c>
       <c r="H8">
-        <f>H6/5</f>
+        <f t="shared" ref="H8:I8" si="0">H6/5</f>
         <v>0.8</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:J8" si="0">I6/5</f>
-        <v>0.8</v>
-      </c>
-      <c r="J8">
         <f t="shared" si="0"/>
         <v>0.8</v>
+      </c>
+      <c r="J8">
+        <f>J6/5</f>
+        <v>0.6</v>
       </c>
       <c r="K8">
         <f>K6/5</f>
@@ -558,217 +568,216 @@
       </c>
       <c r="L8">
         <f>L6/5</f>
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M8">
         <f>M6/5</f>
         <v>0.2</v>
       </c>
-      <c r="N8">
-        <f>N6/5</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
+      <c r="E9">
+        <f>(E7-E6)-(5-E6)</f>
+        <v>5</v>
+      </c>
       <c r="F9">
-        <f>(F7-F6)-(5-F6)</f>
-        <v>5</v>
+        <f t="shared" ref="F9:G9" si="1">(F7-F6)-(5-F6)</f>
+        <v>1</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:H9" si="1">(G7-G6)-(5-G6)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="H9:M9" si="2">(H7-H6)-(5-H6)</f>
+        <v>-1</v>
       </c>
       <c r="I9">
-        <f>(I7-I6)-(5-I6)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J9">
-        <f>(J7-J6)-(5-J6)</f>
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>-2</v>
       </c>
       <c r="K9">
-        <f>(K7-K6)-(5-K6)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="L9">
-        <f>(L7-L6)-(5-L6)</f>
-        <v>-2</v>
+        <f t="shared" si="2"/>
+        <v>-4</v>
       </c>
       <c r="M9">
-        <f>(M7-M6)-(5-M6)</f>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="N9">
-        <f>(N7-N6)-(5-N6)</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
+      <c r="E11">
+        <v>24</v>
+      </c>
       <c r="F11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H11">
         <v>23</v>
       </c>
       <c r="I11">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J11">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>14</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <v>25</v>
+      </c>
+      <c r="I12">
         <v>20</v>
       </c>
-      <c r="K11">
+      <c r="J12">
         <v>18</v>
       </c>
-      <c r="L11">
+      <c r="K12">
         <v>14</v>
       </c>
-      <c r="M11">
+      <c r="L12">
         <v>7</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>35</v>
-      </c>
-      <c r="G12">
-        <v>29</v>
-      </c>
-      <c r="H12">
-        <v>26</v>
-      </c>
-      <c r="I12">
-        <v>25</v>
-      </c>
-      <c r="J12">
-        <v>20</v>
-      </c>
-      <c r="K12">
-        <v>18</v>
-      </c>
-      <c r="L12">
-        <v>14</v>
-      </c>
       <c r="M12">
-        <v>7</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
+      <c r="E13">
+        <f>E11/27</f>
+        <v>0.88888888888888884</v>
+      </c>
       <c r="F13">
-        <f>F11/27</f>
-        <v>0.88888888888888884</v>
+        <f t="shared" ref="F13:G13" si="3">F11/27</f>
+        <v>0.92592592592592593</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:H13" si="2">G11/27</f>
-        <v>0.92592592592592593</v>
+        <f t="shared" si="3"/>
+        <v>0.85185185185185186</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f>H11/27</f>
         <v>0.85185185185185186</v>
       </c>
       <c r="I13">
-        <f>I11/27</f>
-        <v>0.85185185185185186</v>
+        <f t="shared" ref="I13" si="4">I11/27</f>
+        <v>0.7407407407407407</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13" si="3">J11/27</f>
-        <v>0.7407407407407407</v>
+        <f>J11/27</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K13">
         <f>K11/27</f>
-        <v>0.66666666666666663</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="L13">
         <f>L11/27</f>
-        <v>0.51851851851851849</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="M13">
         <f>M11/27</f>
-        <v>0.25925925925925924</v>
-      </c>
-      <c r="N13">
-        <f>N11/27</f>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
+      <c r="E14">
+        <f>(E12-E11)-(27-E11)</f>
+        <v>8</v>
+      </c>
       <c r="F14">
-        <f>(F12-F11)-(27-F11)</f>
-        <v>8</v>
+        <f t="shared" ref="F14:G14" si="5">(F12-F11)-(27-F11)</f>
+        <v>2</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:H14" si="4">(G12-G11)-(27-G11)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>-1</v>
       </c>
       <c r="H14">
-        <f t="shared" si="4"/>
-        <v>-1</v>
+        <f t="shared" ref="H14:M14" si="6">(H12-H11)-(27-H11)</f>
+        <v>-2</v>
       </c>
       <c r="I14">
-        <f>(I12-I11)-(27-I11)</f>
-        <v>-2</v>
+        <f t="shared" si="6"/>
+        <v>-7</v>
       </c>
       <c r="J14">
-        <f>(J12-J11)-(27-J11)</f>
-        <v>-7</v>
+        <f t="shared" si="6"/>
+        <v>-9</v>
       </c>
       <c r="K14">
-        <f>(K12-K11)-(27-K11)</f>
-        <v>-9</v>
+        <f t="shared" si="6"/>
+        <v>-13</v>
       </c>
       <c r="L14">
-        <f>(L12-L11)-(27-L11)</f>
-        <v>-13</v>
+        <f t="shared" si="6"/>
+        <v>-20</v>
       </c>
       <c r="M14">
-        <f>(M12-M11)-(27-M11)</f>
-        <v>-20</v>
-      </c>
-      <c r="N14">
-        <f>(N12-N11)-(27-N11)</f>
+        <f t="shared" si="6"/>
         <v>-26</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
       <c r="F16">
         <v>0</v>
       </c>
@@ -793,99 +802,100 @@
       <c r="M16">
         <v>0</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>1</v>
       </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
       <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f>(E17-E16)-(0-E16)</f>
         <v>11</v>
       </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
+      <c r="F19">
+        <f t="shared" ref="F19:G19" si="7">(F17-F16)-(0-F16)</f>
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <f>(H17-H16)-(0-H16)</f>
         <v>2</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <f>(F17-F16)-(0-F16)</f>
-        <v>11</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ref="G19:H19" si="5">(G17-G16)-(0-G16)</f>
-        <v>4</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
       <c r="I19">
-        <f>(I17-I16)-(0-I16)</f>
-        <v>2</v>
+        <f t="shared" ref="I19" si="8">(I17-I16)-(0-I16)</f>
+        <v>0</v>
       </c>
       <c r="J19">
-        <f t="shared" ref="J19" si="6">(J17-J16)-(0-J16)</f>
+        <f>(J17-J16)-(0-J16)</f>
         <v>0</v>
       </c>
       <c r="K19">
@@ -900,20 +910,19 @@
         <f>(M17-M16)-(0-M16)</f>
         <v>0</v>
       </c>
-      <c r="N19">
-        <f>(N17-N16)-(0-N16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
       <c r="F21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -925,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -936,16 +945,16 @@
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>1</v>
       </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
       <c r="F22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -957,7 +966,7 @@
         <v>3</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -968,36 +977,37 @@
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
+      <c r="E23">
+        <f>E21/3</f>
+        <v>1</v>
+      </c>
       <c r="F23">
-        <f>F21/3</f>
-        <v>1</v>
+        <f t="shared" ref="F23:G23" si="9">F21/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:H23" si="7">G21/3</f>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="H23">
-        <f t="shared" si="7"/>
+        <f>H21/3</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="I23">
-        <f>I21/3</f>
+        <f t="shared" ref="I23" si="10">I21/3</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23" si="8">J21/3</f>
-        <v>0.66666666666666663</v>
+        <f>J21/3</f>
+        <v>0</v>
       </c>
       <c r="K23">
         <f>K21/3</f>
@@ -1011,34 +1021,34 @@
         <f>M21/3</f>
         <v>0</v>
       </c>
-      <c r="N23">
-        <f>N21/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
+      <c r="E24">
+        <f>(E22-E21)-(3-E21)</f>
+        <v>3</v>
+      </c>
       <c r="F24">
-        <f>(F22-F21)-(3-F21)</f>
-        <v>3</v>
+        <f t="shared" ref="F24:G24" si="11">(F22-F21)-(3-F21)</f>
+        <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24:H24" si="9">(G22-G21)-(3-G21)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H24">
-        <f t="shared" si="9"/>
+        <f>(H22-H21)-(3-H21)</f>
         <v>0</v>
       </c>
       <c r="I24">
-        <f>(I22-I21)-(3-I21)</f>
+        <f t="shared" ref="I24" si="12">(I22-I21)-(3-I21)</f>
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="J24" si="10">(J22-J21)-(3-J21)</f>
-        <v>0</v>
+        <f>(J22-J21)-(3-J21)</f>
+        <v>-3</v>
       </c>
       <c r="K24">
         <f>(K22-K21)-(3-K21)</f>
@@ -1052,18 +1062,17 @@
         <f>(M22-M21)-(3-M21)</f>
         <v>-3</v>
       </c>
-      <c r="N24">
-        <f>(N22-N21)-(3-N21)</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
       <c r="F26">
         <v>0</v>
       </c>
@@ -1088,16 +1097,16 @@
       <c r="M26">
         <v>0</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>1</v>
       </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
       <c r="F27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -1106,13 +1115,13 @@
         <v>4</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -1120,35 +1129,36 @@
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
       </c>
+      <c r="E28">
+        <f>E26/3</f>
+        <v>0</v>
+      </c>
       <c r="F28">
-        <f>F26/3</f>
+        <f t="shared" ref="F28:G28" si="13">F26/3</f>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28:H28" si="11">G26/3</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H28">
-        <f t="shared" si="11"/>
+        <f>H26/3</f>
         <v>0</v>
       </c>
       <c r="I28">
-        <f>I26/3</f>
+        <f t="shared" ref="I28" si="14">I26/3</f>
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" ref="J28" si="12">J26/3</f>
+        <f>J26/3</f>
         <v>0</v>
       </c>
       <c r="K28">
@@ -1163,38 +1173,38 @@
         <f>M26/3</f>
         <v>0</v>
       </c>
-      <c r="N28">
-        <f>N26/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
+      <c r="E29">
+        <f>(E27-E26)-(3-E26)</f>
+        <v>3</v>
+      </c>
       <c r="F29">
-        <f>(F27-F26)-(3-F26)</f>
-        <v>3</v>
+        <f t="shared" ref="F29:G29" si="15">(F27-F26)-(3-F26)</f>
+        <v>1</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29:H29" si="13">(G27-G26)-(3-G26)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="H29">
-        <f t="shared" si="13"/>
+        <f>(H27-H26)-(3-H26)</f>
         <v>1</v>
       </c>
       <c r="I29">
-        <f>(I27-I26)-(3-I26)</f>
-        <v>1</v>
+        <f t="shared" ref="I29" si="16">(I27-I26)-(3-I26)</f>
+        <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" ref="J29" si="14">(J27-J26)-(3-J26)</f>
-        <v>0</v>
+        <f>(J27-J26)-(3-J26)</f>
+        <v>-2</v>
       </c>
       <c r="K29">
         <f>(K27-K26)-(3-K26)</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="L29">
         <f>(L27-L26)-(3-L26)</f>
@@ -1204,18 +1214,17 @@
         <f>(M27-M26)-(3-M26)</f>
         <v>-3</v>
       </c>
-      <c r="N29">
-        <f>(N27-N26)-(3-N26)</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
       <c r="F31">
         <v>0</v>
       </c>
@@ -1240,19 +1249,19 @@
       <c r="M31">
         <v>0</v>
       </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>1</v>
       </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1272,35 +1281,36 @@
       <c r="M32">
         <v>0</v>
       </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
       </c>
+      <c r="E33">
+        <f>E31/1</f>
+        <v>0</v>
+      </c>
       <c r="F33">
-        <f>F31/1</f>
+        <f t="shared" ref="F33:G33" si="17">F31/1</f>
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:H33" si="15">G31/1</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" si="15"/>
+        <f>H31/1</f>
         <v>0</v>
       </c>
       <c r="I33">
-        <f>I31/1</f>
+        <f t="shared" ref="I33" si="18">I31/1</f>
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" ref="J33" si="16">J31/1</f>
+        <f>J31/1</f>
         <v>0</v>
       </c>
       <c r="K33">
@@ -1315,33 +1325,33 @@
         <f>M31/1</f>
         <v>0</v>
       </c>
-      <c r="N33">
-        <f>N31/1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
+      <c r="E34">
+        <f>(E32-E31)-(1-E31)</f>
+        <v>1</v>
+      </c>
       <c r="F34">
-        <f>(F32-F31)-(1-F31)</f>
-        <v>1</v>
+        <f t="shared" ref="F34:G34" si="19">(F32-F31)-(1-F31)</f>
+        <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:H34" si="17">(G32-G31)-(1-G31)</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>-1</v>
       </c>
       <c r="H34">
-        <f t="shared" si="17"/>
+        <f>(H32-H31)-(1-H31)</f>
         <v>-1</v>
       </c>
       <c r="I34">
-        <f>(I32-I31)-(1-I31)</f>
+        <f t="shared" ref="I34" si="20">(I32-I31)-(1-I31)</f>
         <v>-1</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34" si="18">(J32-J31)-(1-J31)</f>
+        <f>(J32-J31)-(1-J31)</f>
         <v>-1</v>
       </c>
       <c r="K34">
@@ -1356,49 +1366,45 @@
         <f>(M32-M31)-(1-M31)</f>
         <v>-1</v>
       </c>
-      <c r="N34">
-        <f>(N32-N31)-(1-N31)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+    </row>
+    <row r="36" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E36">
+        <f>_xlfn.VAR.P(E9,E14,E19,E24,E29,E34)</f>
+        <v>11.472222222222221</v>
       </c>
       <c r="F36">
         <f>_xlfn.VAR.P(F9,F14,F19,F24,F29,F34)</f>
-        <v>11.472222222222221</v>
+        <v>1.8888888888888888</v>
       </c>
       <c r="G36">
         <f>_xlfn.VAR.P(G9,G14,G19,G24,G29,G34)</f>
         <v>1.8888888888888888</v>
       </c>
       <c r="H36">
-        <f>_xlfn.VAR.P(H9,H14,H19,H24,H29,H34)</f>
-        <v>1.8888888888888888</v>
+        <f t="shared" ref="H36" si="21">_xlfn.VAR.P(H9,H14,H19,H24,H29,H34)</f>
+        <v>1.8055555555555556</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36:J36" si="19">_xlfn.VAR.P(I9,I14,I19,I24,I29,I34)</f>
-        <v>1.8055555555555556</v>
+        <f>_xlfn.VAR.P(I9,I14,I19,I24,I29,I34)</f>
+        <v>6.25</v>
       </c>
       <c r="J36">
         <f>_xlfn.VAR.P(J9,J14,J19,J24,J29,J34)</f>
-        <v>6.25</v>
+        <v>8.4722222222222214</v>
       </c>
       <c r="K36">
         <f>_xlfn.VAR.P(K9,K14,K19,K24,K29,K34)</f>
-        <v>8.4722222222222214</v>
+        <v>18.555555555555557</v>
       </c>
       <c r="L36">
         <f>_xlfn.VAR.P(L9,L14,L19,L24,L29,L34)</f>
-        <v>18.555555555555557</v>
+        <v>45.805555555555557</v>
       </c>
       <c r="M36">
         <f>_xlfn.VAR.P(M9,M14,M19,M24,M29,M34)</f>
-        <v>45.805555555555557</v>
-      </c>
-      <c r="N36">
-        <f>_xlfn.VAR.P(N9,N14,N19,N24,N29,N34)</f>
         <v>80.472222222222229</v>
       </c>
     </row>
